--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1799742.030235754</v>
+        <v>1802065.702049622</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1151840.918742179</v>
+        <v>1151840.918742178</v>
       </c>
     </row>
     <row r="8">
@@ -659,20 +661,20 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G2" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="G2" t="n">
-        <v>15.30273751513505</v>
-      </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
@@ -701,10 +703,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -716,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>21.84039882228386</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>40.25778981025229</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -744,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -753,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>46.38724422570589</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -789,13 +791,13 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>46.38724422570589</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -826,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -841,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,31 +858,31 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="R4" t="n">
-        <v>53.51252900994975</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.170977004479174</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>26.16190956546853</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>193.4600505471182</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>241.0142888776591</v>
@@ -917,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -984,16 +986,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,25 +1025,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>69.27151018080316</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>60.27622829416089</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1102,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>230.0285617769921</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>205.4093399017307</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1175,16 +1177,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1209,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>156.7701852745342</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1221,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1260,16 +1262,16 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>35.40726547353833</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>241.0142888776591</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1330,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>7.778646031951277</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1382,10 +1384,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>103.0088977318019</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
@@ -1412,25 +1414,25 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1446,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1494,25 +1496,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>55.57566235103572</v>
       </c>
       <c r="V12" t="n">
-        <v>70.84795259427446</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1546,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1567,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1604,31 +1606,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>200.3360962888296</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1673,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
     </row>
     <row r="15">
@@ -1686,22 +1688,22 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1731,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>143.7755410381886</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1749,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>175.1168777114693</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1783,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1804,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1853,19 +1855,19 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1892,16 +1894,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>102.3382270926889</v>
+        <v>71.01467844038818</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1923,25 +1925,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>145.4467082856156</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>22.97702676147813</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -1968,25 +1970,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2044,10 +2046,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2056,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2081,16 +2083,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>70.34400780127524</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2135,16 +2137,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2163,7 +2165,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>132.1946129538656</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2205,25 +2207,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>84.84103413332343</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2281,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>133.186967585368</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2318,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>220.8837963815378</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2333,13 +2335,13 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2369,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2397,16 +2399,16 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>77.46860910239674</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2442,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>106.7776990973756</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2454,16 +2456,16 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2515,10 +2517,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2527,13 +2529,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2552,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2564,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>112.3289263072337</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2597,23 +2599,23 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
@@ -2621,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="27">
@@ -2643,19 +2645,19 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>123.6003327477366</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2694,13 +2696,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>16.53524424398009</v>
       </c>
     </row>
     <row r="28">
@@ -2713,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2752,13 +2754,13 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2792,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>241.0142888776591</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2837,22 +2839,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2868,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>16.62553367015321</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2877,22 +2879,22 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>60.09118670082915</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2989,22 +2991,22 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3032,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3041,58 +3043,58 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T32" t="n">
+        <v>23.81301614990497</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3105,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3114,16 +3116,16 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3153,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>142.0207091502683</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>29.9892228523575</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3226,19 +3228,19 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="T34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3266,67 +3268,67 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S35" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T35" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>212.285385643442</v>
-      </c>
       <c r="V35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3342,13 +3344,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3363,10 +3365,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,25 +3392,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>53.68307785045481</v>
+        <v>119.3888130423743</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3466,10 +3468,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3481,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3545,28 +3547,28 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>208.2638363878125</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W38" t="n">
-        <v>232.3303155802432</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3582,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3600,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -3636,13 +3638,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>75.43383855705413</v>
+        <v>222.3082294474576</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3700,19 +3702,19 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="T40" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3737,31 +3739,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3791,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3800,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>230.8744955960827</v>
       </c>
       <c r="Y41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,13 +3818,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>46.79470495664743</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -3834,13 +3836,13 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3864,19 +3866,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>115.1481656116171</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -3937,10 +3939,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3958,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>133.186967585368</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3992,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4037,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.0142888776591</v>
+        <v>230.2038249569697</v>
       </c>
     </row>
     <row r="45">
@@ -4056,28 +4058,28 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>0.6806854287134353</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4101,25 +4103,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>91.00671443664322</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4132,64 +4134,64 @@
         </is>
       </c>
       <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>73.79137254815437</v>
+        <v>173.385681888029</v>
       </c>
       <c r="C2" t="n">
-        <v>73.79137254815437</v>
+        <v>119.3326222820192</v>
       </c>
       <c r="D2" t="n">
-        <v>73.79137254815437</v>
+        <v>65.27956267600931</v>
       </c>
       <c r="E2" t="n">
-        <v>73.79137254815437</v>
+        <v>65.27956267600931</v>
       </c>
       <c r="F2" t="n">
-        <v>19.73831294214452</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="G2" t="n">
         <v>4.28100232079598</v>
@@ -4331,49 +4333,49 @@
         <v>4.28100232079598</v>
       </c>
       <c r="K2" t="n">
+        <v>4.28100232079598</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4.28100232079598</v>
+      </c>
+      <c r="M2" t="n">
         <v>57.25840604064623</v>
-      </c>
-      <c r="L2" t="n">
-        <v>110.2358097604965</v>
-      </c>
-      <c r="M2" t="n">
-        <v>110.2358097604965</v>
       </c>
       <c r="N2" t="n">
         <v>110.2358097604965</v>
       </c>
       <c r="O2" t="n">
-        <v>163.2132134803467</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="P2" t="n">
         <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>203.9585006715719</v>
+        <v>214.050116039799</v>
       </c>
       <c r="R2" t="n">
-        <v>149.9054410655621</v>
+        <v>214.050116039799</v>
       </c>
       <c r="S2" t="n">
-        <v>149.9054410655621</v>
+        <v>214.050116039799</v>
       </c>
       <c r="T2" t="n">
-        <v>149.9054410655621</v>
+        <v>214.050116039799</v>
       </c>
       <c r="U2" t="n">
-        <v>149.9054410655621</v>
+        <v>214.050116039799</v>
       </c>
       <c r="V2" t="n">
-        <v>127.8444321541642</v>
+        <v>214.050116039799</v>
       </c>
       <c r="W2" t="n">
-        <v>73.79137254815437</v>
+        <v>214.050116039799</v>
       </c>
       <c r="X2" t="n">
-        <v>73.79137254815437</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Y2" t="n">
-        <v>73.79137254815437</v>
+        <v>173.385681888029</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.035134973581694</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="C3" t="n">
-        <v>5.035134973581694</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="D3" t="n">
-        <v>5.035134973581694</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="E3" t="n">
-        <v>5.035134973581694</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="F3" t="n">
-        <v>5.035134973581694</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="G3" t="n">
-        <v>5.035134973581694</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="H3" t="n">
         <v>5.035134973581694</v>
@@ -4410,16 +4412,16 @@
         <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
-        <v>4.28100232079598</v>
+        <v>55.11790488024824</v>
       </c>
       <c r="L3" t="n">
-        <v>57.25840604064623</v>
+        <v>55.11790488024824</v>
       </c>
       <c r="M3" t="n">
-        <v>57.25840604064623</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="N3" t="n">
-        <v>108.0953086000985</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="O3" t="n">
         <v>161.0727123199487</v>
@@ -4437,22 +4439,22 @@
         <v>159.9970564337892</v>
       </c>
       <c r="T3" t="n">
-        <v>105.9439968277793</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="U3" t="n">
-        <v>59.08819457959154</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="V3" t="n">
-        <v>5.035134973581694</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="W3" t="n">
-        <v>5.035134973581694</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="X3" t="n">
-        <v>5.035134973581694</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.035134973581694</v>
+        <v>159.9970564337892</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>26.77543850855644</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="C4" t="n">
-        <v>26.77543850855644</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="D4" t="n">
-        <v>26.77543850855644</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="E4" t="n">
-        <v>26.77543850855644</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="F4" t="n">
-        <v>26.77543850855644</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="G4" t="n">
-        <v>26.77543850855644</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="H4" t="n">
-        <v>26.77543850855644</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I4" t="n">
-        <v>26.77543850855644</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J4" t="n">
-        <v>26.77543850855644</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K4" t="n">
         <v>4.28100232079598</v>
@@ -4504,34 +4506,34 @@
         <v>138.8132928110667</v>
       </c>
       <c r="P4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.01130316959576</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="R4" t="n">
-        <v>27.95824356358591</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="S4" t="n">
-        <v>27.95824356358591</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="T4" t="n">
-        <v>26.77543850855644</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="U4" t="n">
-        <v>26.77543850855644</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="V4" t="n">
-        <v>26.77543850855644</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="W4" t="n">
-        <v>26.77543850855644</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="X4" t="n">
-        <v>26.77543850855644</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="Y4" t="n">
-        <v>26.77543850855644</v>
+        <v>58.33406192680583</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C5" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D5" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E5" t="n">
-        <v>506.1786963984129</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="F5" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4610,7 +4612,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y5" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>222.9499078454769</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="C6" t="n">
-        <v>222.9499078454769</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="D6" t="n">
-        <v>222.9499078454769</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="E6" t="n">
-        <v>222.9499078454769</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F6" t="n">
-        <v>222.9499078454769</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G6" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
         <v>19.28114311021272</v>
@@ -4650,16 +4652,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4671,25 +4673,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>894.0859331057845</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>894.0859331057845</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U6" t="n">
-        <v>665.8623148421735</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V6" t="n">
-        <v>430.7102066104308</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W6" t="n">
-        <v>430.7102066104308</v>
+        <v>472.7618635207803</v>
       </c>
       <c r="X6" t="n">
-        <v>430.7102066104308</v>
+        <v>472.7618635207803</v>
       </c>
       <c r="Y6" t="n">
-        <v>222.9499078454769</v>
+        <v>472.7618635207803</v>
       </c>
     </row>
     <row r="7">
@@ -4750,22 +4752,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
         <v>19.28114311021272</v>
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>274.0360370837871</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C8" t="n">
-        <v>274.0360370837871</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D8" t="n">
-        <v>274.0360370837871</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E8" t="n">
-        <v>41.68395448076474</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F8" t="n">
-        <v>34.73845373156126</v>
+        <v>470.2141014732327</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>226.7653248291326</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>226.7653248291326</v>
       </c>
       <c r="I8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>517.4848137278872</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>517.4848137278872</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>517.4848137278872</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
-        <v>517.4848137278872</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X8" t="n">
-        <v>517.4848137278872</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y8" t="n">
-        <v>517.4848137278872</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="9">
@@ -4857,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>324.1694235828572</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F9" t="n">
         <v>19.28114311021272</v>
@@ -4887,19 +4889,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4908,25 +4910,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>928.2922408909005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>726.1056462496665</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>497.8820279860555</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V9" t="n">
-        <v>262.7299197543128</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W9" t="n">
-        <v>19.28114311021272</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="X9" t="n">
-        <v>19.28114311021272</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.28114311021272</v>
+        <v>492.3847606029253</v>
       </c>
     </row>
     <row r="10">
@@ -4978,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>591.4512093066566</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="C11" t="n">
-        <v>591.4512093066566</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="D11" t="n">
-        <v>591.4512093066566</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="E11" t="n">
-        <v>591.4512093066566</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="F11" t="n">
-        <v>591.4512093066566</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="G11" t="n">
-        <v>487.4018176583718</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H11" t="n">
         <v>243.9530410142718</v>
@@ -5060,31 +5062,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S11" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>591.4512093066566</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U11" t="n">
-        <v>591.4512093066566</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V11" t="n">
-        <v>591.4512093066566</v>
+        <v>495.259035872464</v>
       </c>
       <c r="W11" t="n">
-        <v>591.4512093066566</v>
+        <v>251.810259228364</v>
       </c>
       <c r="X11" t="n">
-        <v>591.4512093066566</v>
+        <v>251.810259228364</v>
       </c>
       <c r="Y11" t="n">
-        <v>591.4512093066566</v>
+        <v>251.810259228364</v>
       </c>
     </row>
     <row r="12">
@@ -5124,13 +5126,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>144.6387031680501</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M12" t="n">
-        <v>304.2053859195205</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N12" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O12" t="n">
         <v>781.4136778972854</v>
@@ -5142,28 +5144,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U12" t="n">
-        <v>259.0600686093459</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V12" t="n">
-        <v>187.4964801302808</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W12" t="n">
-        <v>187.4964801302808</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X12" t="n">
-        <v>187.4964801302808</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y12" t="n">
-        <v>187.4964801302808</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5215,34 +5217,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="C14" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D14" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E14" t="n">
-        <v>964.0571555106362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F14" t="n">
-        <v>720.6083788665362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G14" t="n">
-        <v>477.1596022224361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H14" t="n">
-        <v>233.7108255783361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5321,7 +5323,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y14" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>787.171420448546</v>
+        <v>281.5846883638847</v>
       </c>
       <c r="C15" t="n">
-        <v>612.718391167419</v>
+        <v>281.5846883638847</v>
       </c>
       <c r="D15" t="n">
-        <v>463.7839815061678</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E15" t="n">
-        <v>304.5465265007123</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F15" t="n">
-        <v>158.0119685275972</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G15" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H15" t="n">
         <v>19.28114311021272</v>
@@ -5367,10 +5369,10 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N15" t="n">
-        <v>781.4136778972854</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O15" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P15" t="n">
         <v>964.0571555106362</v>
@@ -5379,28 +5381,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T15" t="n">
-        <v>964.0571555106362</v>
+        <v>717.6598068330284</v>
       </c>
       <c r="U15" t="n">
-        <v>964.0571555106362</v>
+        <v>489.4361885694175</v>
       </c>
       <c r="V15" t="n">
-        <v>964.0571555106362</v>
+        <v>489.4361885694175</v>
       </c>
       <c r="W15" t="n">
-        <v>964.0571555106362</v>
+        <v>489.4361885694175</v>
       </c>
       <c r="X15" t="n">
-        <v>787.171420448546</v>
+        <v>281.5846883638847</v>
       </c>
       <c r="Y15" t="n">
-        <v>787.171420448546</v>
+        <v>281.5846883638847</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5452,34 +5454,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5540,25 +5542,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U17" t="n">
-        <v>122.6530896684844</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V17" t="n">
-        <v>19.28114311021272</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>730.8505943024719</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>217.6974229850125</v>
       </c>
       <c r="C18" t="n">
-        <v>817.1412885554689</v>
+        <v>43.24439370388544</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>43.24439370388544</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>43.24439370388544</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>43.24439370388544</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>43.24439370388544</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>43.24439370388544</v>
       </c>
       <c r="I18" t="n">
         <v>20.03527576299844</v>
@@ -5598,13 +5600,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>383.2428491569326</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>621.8469951458151</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O18" t="n">
         <v>781.4136778972854</v>
@@ -5616,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>217.6974229850125</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>217.6974229850125</v>
       </c>
     </row>
     <row r="19">
@@ -5692,16 +5694,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
         <v>19.28114311021272</v>
@@ -5726,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>333.7844730889342</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>333.7844730889342</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>333.7844730889342</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>90.33569644483418</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
         <v>19.28114311021272</v>
@@ -5783,19 +5785,19 @@
         <v>577.2332497330343</v>
       </c>
       <c r="U20" t="n">
-        <v>577.2332497330343</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="V20" t="n">
-        <v>577.2332497330343</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="W20" t="n">
-        <v>577.2332497330343</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X20" t="n">
-        <v>333.7844730889342</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y20" t="n">
-        <v>333.7844730889342</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="21">
@@ -5805,10 +5807,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>327.2640844659515</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C21" t="n">
-        <v>152.8110551848245</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
         <v>19.28114311021272</v>
@@ -5832,13 +5834,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N21" t="n">
         <v>542.809531908403</v>
@@ -5853,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>790.6398109613051</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U21" t="n">
-        <v>562.4161926976942</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V21" t="n">
-        <v>327.2640844659515</v>
+        <v>401.5856725968725</v>
       </c>
       <c r="W21" t="n">
-        <v>327.2640844659515</v>
+        <v>401.5856725968725</v>
       </c>
       <c r="X21" t="n">
-        <v>327.2640844659515</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y21" t="n">
-        <v>327.2640844659515</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>710.516763498309</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C23" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6017,22 +6019,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U23" t="n">
-        <v>953.9655401424092</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V23" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W23" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X23" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y23" t="n">
-        <v>710.516763498309</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="24">
@@ -6042,16 +6044,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>648.4405950311615</v>
+        <v>246.4666730769152</v>
       </c>
       <c r="C24" t="n">
-        <v>473.9875657500345</v>
+        <v>246.4666730769152</v>
       </c>
       <c r="D24" t="n">
-        <v>325.0531560887832</v>
+        <v>97.53226341566398</v>
       </c>
       <c r="E24" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
         <v>19.28114311021272</v>
@@ -6072,46 +6074,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M24" t="n">
-        <v>542.809531908403</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>856.2008937961155</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T24" t="n">
-        <v>856.2008937961155</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U24" t="n">
-        <v>856.2008937961155</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V24" t="n">
-        <v>856.2008937961155</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="W24" t="n">
-        <v>856.2008937961155</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="X24" t="n">
-        <v>856.2008937961155</v>
+        <v>246.4666730769152</v>
       </c>
       <c r="Y24" t="n">
-        <v>648.4405950311615</v>
+        <v>246.4666730769152</v>
       </c>
     </row>
     <row r="25">
@@ -6163,22 +6165,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
         <v>19.28114311021272</v>
@@ -6200,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>132.7447050367114</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>132.7447050367114</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>132.7447050367114</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>132.7447050367114</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>601.5428246748836</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>376.1934816808115</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U26" t="n">
-        <v>132.7447050367114</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V26" t="n">
-        <v>132.7447050367114</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W26" t="n">
-        <v>132.7447050367114</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X26" t="n">
-        <v>132.7447050367114</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y26" t="n">
-        <v>132.7447050367114</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="27">
@@ -6279,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>257.8852890990952</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>496.4894350879777</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6342,13 +6344,13 @@
         <v>487.2836868729568</v>
       </c>
       <c r="W27" t="n">
-        <v>487.2836868729568</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="X27" t="n">
-        <v>487.2836868729568</v>
+        <v>35.98341002332393</v>
       </c>
       <c r="Y27" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6358,7 +6360,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
         <v>19.28114311021272</v>
@@ -6400,34 +6402,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="C29" t="n">
         <v>19.28114311021272</v>
@@ -6485,28 +6487,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>942.6594228129348</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>731.528039392485</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U29" t="n">
-        <v>262.7299197543128</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V29" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="W29" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="X29" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="Y29" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
     </row>
     <row r="30">
@@ -6516,43 +6518,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="L30" t="n">
+        <v>65.60123993063803</v>
+      </c>
+      <c r="M30" t="n">
         <v>304.2053859195205</v>
       </c>
-      <c r="M30" t="n">
+      <c r="N30" t="n">
         <v>542.809531908403</v>
-      </c>
-      <c r="N30" t="n">
-        <v>781.4136778972854</v>
       </c>
       <c r="O30" t="n">
         <v>781.4136778972854</v>
@@ -6564,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>903.3589871259603</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>903.3589871259603</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T30" t="n">
-        <v>903.3589871259603</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U30" t="n">
-        <v>903.3589871259603</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V30" t="n">
-        <v>668.2068788942177</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W30" t="n">
-        <v>668.2068788942177</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="X30" t="n">
-        <v>668.2068788942177</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="Y30" t="n">
-        <v>668.2068788942177</v>
+        <v>36.07461146390284</v>
       </c>
     </row>
     <row r="31">
@@ -6637,19 +6639,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U31" t="n">
         <v>19.28114311021272</v>
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="U32" t="n">
-        <v>749.627473042513</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="V32" t="n">
-        <v>749.627473042513</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="W32" t="n">
-        <v>506.1786963984129</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="X32" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>577.1531170985884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>577.1531170985884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>577.1531170985884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>417.9156620931329</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
         <v>19.28114311021272</v>
@@ -6786,7 +6788,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>417.4543050195419</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
         <v>656.0584510084244</v>
@@ -6801,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V33" t="n">
-        <v>820.6018937426884</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="W33" t="n">
-        <v>577.1531170985884</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="X33" t="n">
-        <v>577.1531170985884</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="Y33" t="n">
-        <v>577.1531170985884</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>262.7299197543128</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="C35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
         <v>19.28114311021272</v>
@@ -6959,28 +6961,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U35" t="n">
-        <v>749.627473042513</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="V35" t="n">
-        <v>506.1786963984129</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="W35" t="n">
-        <v>262.7299197543128</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="X35" t="n">
-        <v>262.7299197543128</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.7299197543128</v>
+        <v>132.7447050367114</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>259.2693145670932</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>259.2693145670932</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7023,10 +7025,10 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>249.2442489785619</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N36" t="n">
-        <v>487.8483949674443</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O36" t="n">
         <v>712.019119383956</v>
@@ -7038,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>635.2449503521152</v>
+        <v>670.0450503124422</v>
       </c>
       <c r="U36" t="n">
-        <v>635.2449503521152</v>
+        <v>670.0450503124422</v>
       </c>
       <c r="V36" t="n">
-        <v>635.2449503521152</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="W36" t="n">
-        <v>635.2449503521152</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X36" t="n">
-        <v>635.2449503521152</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y36" t="n">
-        <v>427.4846515871612</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7114,19 +7116,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T38" t="n">
-        <v>752.9257720901863</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U38" t="n">
-        <v>509.4769954460863</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V38" t="n">
-        <v>266.0282188019862</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W38" t="n">
-        <v>31.35113235729608</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X38" t="n">
-        <v>31.35113235729608</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.35113235729608</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>284.0338015341832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
         <v>19.28114311021272</v>
@@ -7254,49 +7256,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M39" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N39" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T39" t="n">
-        <v>588.4532163200711</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U39" t="n">
-        <v>360.2295980564601</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V39" t="n">
-        <v>284.0338015341832</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W39" t="n">
-        <v>284.0338015341832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X39" t="n">
-        <v>284.0338015341832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y39" t="n">
-        <v>284.0338015341832</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7348,16 +7350,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R40" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S40" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T40" t="n">
         <v>19.28114311021272</v>
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>262.7299197543128</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="C41" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="D41" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="E41" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="F41" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G41" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H41" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7439,22 +7441,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V41" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W41" t="n">
-        <v>738.7078125165641</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X41" t="n">
-        <v>738.7078125165641</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="Y41" t="n">
-        <v>495.259035872464</v>
+        <v>487.4018176583718</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>521.2549444941228</v>
+        <v>439.1764243339896</v>
       </c>
       <c r="C42" t="n">
-        <v>473.9875657500345</v>
+        <v>439.1764243339896</v>
       </c>
       <c r="D42" t="n">
-        <v>325.0531560887832</v>
+        <v>439.1764243339896</v>
       </c>
       <c r="E42" t="n">
-        <v>165.8157010833278</v>
+        <v>279.9389693285341</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>65.60123993063803</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N42" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O42" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P42" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T42" t="n">
-        <v>689.4702815141908</v>
+        <v>674.3285325657323</v>
       </c>
       <c r="U42" t="n">
-        <v>689.4702815141908</v>
+        <v>674.3285325657323</v>
       </c>
       <c r="V42" t="n">
-        <v>689.4702815141908</v>
+        <v>439.1764243339896</v>
       </c>
       <c r="W42" t="n">
-        <v>689.4702815141908</v>
+        <v>439.1764243339896</v>
       </c>
       <c r="X42" t="n">
-        <v>689.4702815141908</v>
+        <v>439.1764243339896</v>
       </c>
       <c r="Y42" t="n">
-        <v>689.4702815141908</v>
+        <v>439.1764243339896</v>
       </c>
     </row>
     <row r="43">
@@ -7585,25 +7587,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q43" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R43" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S43" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T43" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U43" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V43" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W43" t="n">
         <v>19.28114311021272</v>
@@ -7622,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C44" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D44" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E44" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F44" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G44" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H44" t="n">
         <v>19.28114311021272</v>
@@ -7676,22 +7678,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U44" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V44" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W44" t="n">
-        <v>720.6083788665362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X44" t="n">
-        <v>720.6083788665362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="Y44" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>19.28114311021272</v>
+        <v>447.2758270930352</v>
       </c>
       <c r="C45" t="n">
-        <v>19.28114311021272</v>
+        <v>272.8227978119081</v>
       </c>
       <c r="D45" t="n">
-        <v>19.28114311021272</v>
+        <v>272.8227978119081</v>
       </c>
       <c r="E45" t="n">
-        <v>19.28114311021272</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="F45" t="n">
-        <v>19.28114311021272</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G45" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>74.24228005117135</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>542.809531908403</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N45" t="n">
-        <v>781.4136778972854</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O45" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P45" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S45" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T45" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U45" t="n">
-        <v>562.4161926976942</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V45" t="n">
-        <v>562.4161926976942</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W45" t="n">
-        <v>318.9674160535941</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X45" t="n">
-        <v>227.0414418751666</v>
+        <v>655.0361258579891</v>
       </c>
       <c r="Y45" t="n">
-        <v>19.28114311021272</v>
+        <v>447.2758270930352</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L46" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M46" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N46" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O46" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P46" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q46" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R46" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S46" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T46" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U46" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V46" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W46" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X46" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y46" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>273.6023800549303</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>289.278943979937</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>230.3462332272727</v>
+        <v>283.8587622372225</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>282.9255926065406</v>
       </c>
       <c r="O2" t="n">
-        <v>283.6107404316365</v>
+        <v>281.4486180473961</v>
       </c>
       <c r="P2" t="n">
-        <v>282.5834023809789</v>
+        <v>284.7455247652193</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,19 +8060,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>189.1918456000683</v>
       </c>
       <c r="L3" t="n">
-        <v>192.0669087898239</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>195.6465629319681</v>
       </c>
       <c r="N3" t="n">
-        <v>182.6921187090427</v>
+        <v>184.8542410932831</v>
       </c>
       <c r="O3" t="n">
-        <v>196.1087734543942</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
         <v>187.48693642428</v>
@@ -8298,19 +8300,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8535,22 +8537,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,10 +8692,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
@@ -8772,16 +8774,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M12" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9015,13 +9017,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>301.2485028631349</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9246,16 +9248,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>303.774711870172</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9480,16 +9482,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>197.6503338623806</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9720,22 +9722,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>168.5314335381781</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,25 +9956,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O27" t="n">
-        <v>360.302996258564</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,10 +10193,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>184.6294155606472</v>
       </c>
       <c r="L30" t="n">
-        <v>299.7328472056018</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
@@ -10203,7 +10205,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10434,10 +10436,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>185.4193833999402</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10671,13 +10673,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>369.031319612638</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10902,10 +10904,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
@@ -10914,13 +10916,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11063,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11139,16 +11141,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
@@ -11157,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11300,7 +11302,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11376,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>193.3577389147212</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>185.4193833999402</v>
       </c>
       <c r="N45" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>374.9551956315293</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23270,10 +23272,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>312.2938397833332</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23300,25 +23302,25 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23334,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -23382,25 +23384,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="V12" t="n">
-        <v>161.9526345551508</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23434,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23455,13 +23457,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23492,31 +23494,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F14" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>10.13979328157632</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23561,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>384.4284425830174</v>
       </c>
     </row>
     <row r="15">
@@ -23574,22 +23576,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
@@ -23619,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>56.389187656633</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23637,7 +23639,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>30.65610749200815</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23671,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23692,13 +23694,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23741,19 +23743,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23780,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>225.414031377446</v>
+        <v>256.7375800297467</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23811,25 +23813,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>27.26179070270013</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>66.41960608993695</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,25 +23858,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23932,10 +23934,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23944,7 +23946,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23969,16 +23971,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>336.5320379404362</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
@@ -24023,16 +24025,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>278.8969609161378</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24051,7 +24053,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>15.25045261077312</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -24093,25 +24095,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>147.9595530161018</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24169,10 +24171,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>44.10642379180149</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24206,7 +24208,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>144.3890953894697</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24221,13 +24223,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24257,22 +24259,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>107.53913272771</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24285,16 +24287,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>80.1764713530042</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -24330,10 +24332,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>64.90547200646226</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
@@ -24342,16 +24344,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24403,10 +24405,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
@@ -24415,13 +24417,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>227.9455894282815</v>
+        <v>183.6421058297144</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24440,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24452,7 +24454,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>294.5471194344777</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
@@ -24485,22 +24487,22 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24509,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24531,19 +24533,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>21.46887964564732</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24582,13 +24584,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>189.1474515333243</v>
       </c>
     </row>
     <row r="28">
@@ -24601,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24640,13 +24642,13 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>177.2933913771695</v>
+        <v>46.82786452690794</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24680,7 +24682,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>162.9782053421103</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24725,22 +24727,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>138.6760617849701</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24756,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>149.9076499797141</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24765,22 +24767,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>40.06664745181399</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24877,22 +24879,22 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3190293564909</v>
+        <v>242.0155457579237</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24920,7 +24922,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24929,13 +24931,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24959,28 +24961,28 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>199.2828334142264</v>
       </c>
       <c r="U32" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24993,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25002,16 +25004,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
@@ -25041,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>90.77987799915692</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>221.7057603085621</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25114,19 +25116,19 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>224.0165980369723</v>
+        <v>179.7131144384051</v>
       </c>
       <c r="T34" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
@@ -25154,13 +25156,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>252.9439654637738</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25199,22 +25201,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>39.0602672643945</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25230,13 +25232,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -25251,10 +25253,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,25 +25280,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>146.4816508443668</v>
+        <v>80.77591565244732</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25354,10 +25356,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25369,7 +25371,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25433,28 +25435,28 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>86.73796959247585</v>
+        <v>119.4884220823224</v>
       </c>
       <c r="W38" t="n">
-        <v>116.9106531371698</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25470,7 +25472,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25488,7 +25490,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -25515,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25524,13 +25526,13 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>157.3667485923712</v>
+        <v>10.49235770196771</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -25588,19 +25590,19 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>224.0165980369723</v>
+        <v>176.9916737032986</v>
       </c>
       <c r="T40" t="n">
-        <v>97.48006257801995</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25625,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>152.5300167065108</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25643,13 +25645,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25679,7 +25681,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
@@ -25688,13 +25690,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>138.8566050823863</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25704,13 +25706,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>125.9137940316683</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -25722,13 +25724,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25752,19 +25754,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>85.01656308320455</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -25825,10 +25827,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>177.2933913771695</v>
@@ -25846,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>153.336030751223</v>
+        <v>242.2195147380239</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25880,7 +25882,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>127.189416472325</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25916,7 +25918,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
@@ -25925,13 +25927,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.2236497783945</v>
+        <v>156.0341136990839</v>
       </c>
     </row>
     <row r="45">
@@ -25944,28 +25946,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>156.9643950266875</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,25 +25991,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>114.7662707668343</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26077,7 +26079,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>348996.9572608701</v>
+        <v>348996.95726087</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>348996.9572608701</v>
+        <v>348996.95726087</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>348996.9572608701</v>
+        <v>348996.95726087</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>348996.95726087</v>
+        <v>348996.9572608701</v>
       </c>
     </row>
     <row r="15">
@@ -26311,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516052</v>
+        <v>595255.2831516053</v>
       </c>
       <c r="C2" t="n">
         <v>595255.2831516052</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516052</v>
+        <v>595255.2831516053</v>
       </c>
       <c r="E2" t="n">
-        <v>240932.9751704319</v>
+        <v>240932.9751704318</v>
       </c>
       <c r="F2" t="n">
-        <v>240932.9751704319</v>
+        <v>240932.9751704318</v>
       </c>
       <c r="G2" t="n">
         <v>240932.9751704319</v>
       </c>
       <c r="H2" t="n">
+        <v>240932.9751704318</v>
+      </c>
+      <c r="I2" t="n">
         <v>240932.9751704319</v>
-      </c>
-      <c r="I2" t="n">
-        <v>240932.9751704318</v>
       </c>
       <c r="J2" t="n">
         <v>240932.9751704319</v>
@@ -26344,7 +26346,7 @@
         <v>240932.9751704318</v>
       </c>
       <c r="M2" t="n">
-        <v>240932.9751704318</v>
+        <v>240932.9751704319</v>
       </c>
       <c r="N2" t="n">
         <v>240932.9751704319</v>
@@ -26353,7 +26355,7 @@
         <v>240932.9751704319</v>
       </c>
       <c r="P2" t="n">
-        <v>240932.9751704319</v>
+        <v>240932.9751704318</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17933.27925940137</v>
+        <v>17933.27925940139</v>
       </c>
       <c r="C3" t="n">
         <v>60576.32218666811</v>
@@ -26424,7 +26426,7 @@
         <v>287492.6387038018</v>
       </c>
       <c r="E4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="F4" t="n">
         <v>8547.111069342403</v>
@@ -26436,10 +26438,10 @@
         <v>8547.111069342402</v>
       </c>
       <c r="I4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="J4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="K4" t="n">
         <v>8547.111069342402</v>
@@ -26451,7 +26453,7 @@
         <v>8547.111069342402</v>
       </c>
       <c r="N4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="O4" t="n">
         <v>8547.111069342402</v>
@@ -26519,13 +26521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>204679.1311234343</v>
+        <v>204679.1311234344</v>
       </c>
       <c r="C6" t="n">
-        <v>198905.0534973736</v>
+        <v>198905.0534973735</v>
       </c>
       <c r="D6" t="n">
-        <v>259481.3756840417</v>
+        <v>259481.3756840418</v>
       </c>
       <c r="E6" t="n">
         <v>217732.1953373278</v>
@@ -26537,7 +26539,7 @@
         <v>217732.1953373278</v>
       </c>
       <c r="H6" t="n">
-        <v>217732.1953373278</v>
+        <v>217732.1953373277</v>
       </c>
       <c r="I6" t="n">
         <v>217732.1953373278</v>
@@ -26549,7 +26551,7 @@
         <v>169475.2424036952</v>
       </c>
       <c r="L6" t="n">
-        <v>217732.1953373277</v>
+        <v>217732.1953373278</v>
       </c>
       <c r="M6" t="n">
         <v>217732.1953373278</v>
@@ -26561,7 +26563,7 @@
         <v>217732.1953373278</v>
       </c>
       <c r="P6" t="n">
-        <v>217732.1953373278</v>
+        <v>217732.1953373277</v>
       </c>
     </row>
   </sheetData>
@@ -27379,19 +27381,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>311.7603627610578</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>301.1705126107332</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>353.3635167317617</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>361.7902085051853</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27421,10 +27423,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>96.35658893119992</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -27436,16 +27438,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>305.911859647851</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>295.7284397074633</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>345.9801488458013</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>113.0206546399176</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27464,7 +27466,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>104.1325514454512</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27473,7 +27475,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>65.84820001079058</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -27509,13 +27511,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>146.6521996848718</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>179.5541378552689</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>179.2880581394755</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27546,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>91.90851901298149</v>
       </c>
       <c r="G4" t="n">
         <v>167.9909793584588</v>
@@ -27561,7 +27563,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,31 +27578,31 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>32.64951424174463</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>123.7808623672197</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>226.7746124238023</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>198.6251143138782</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>199.5477458235686</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>170.4484560200385</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>188.4703195251436</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>174.288448637476</v>
@@ -27637,7 +27639,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27682,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27692,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27704,16 +27706,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -27743,25 +27745,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>102.4116609230347</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>191.4187548667587</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27822,7 +27824,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -27840,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>151.9018082952696</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>5.066549668675236</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -27895,16 +27897,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -27929,10 +27931,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>15.93831371378155</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27941,7 +27943,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -27980,16 +27982,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>136.2759056302995</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>10.68069428326055</v>
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28050,13 +28052,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -34699,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
       <c r="O2" t="n">
+        <v>51.35040662570936</v>
+      </c>
+      <c r="P2" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="P2" t="n">
-        <v>51.35040662570938</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,19 +34780,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>51.35040662570935</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
       <c r="N3" t="n">
-        <v>51.35040662570935</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="O3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>53.51252900994975</v>
@@ -35018,19 +35020,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35182,10 +35184,10 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
         <v>90.5657124162131</v>
@@ -35255,22 +35257,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35492,16 +35494,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M12" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35659,7 +35661,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
         <v>90.5657124162131</v>
@@ -35735,13 +35737,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>169.9067907798016</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35890,7 +35892,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N17" t="n">
         <v>207.9338608153932</v>
@@ -35966,16 +35968,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>161.1784674257276</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
@@ -36200,16 +36202,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36440,22 +36442,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O27" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,10 +36913,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="L30" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
@@ -36923,7 +36925,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
@@ -37154,10 +37156,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>43.28534947792188</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37391,13 +37393,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
@@ -37622,10 +37624,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
@@ -37634,13 +37636,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37859,16 +37861,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
@@ -37877,7 +37879,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38096,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>55.51629994036225</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792188</v>
       </c>
       <c r="N45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1802065.702049622</v>
+        <v>1733214.405608185</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1151840.918742178</v>
+        <v>1151840.918742179</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14661612.74404855</v>
+        <v>14661612.74404854</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>21.84039882228386</v>
       </c>
       <c r="G2" t="n">
-        <v>53.51252900994975</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -703,16 +703,16 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>40.25778981025229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>53.51252900994975</v>
+        <v>47.13383555196372</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -755,13 +755,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>46.38724422570589</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -828,16 +828,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>26.16190956546851</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>26.16190956546853</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="F5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E5" t="n">
-        <v>193.4600505471182</v>
-      </c>
-      <c r="F5" t="n">
-        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>40.47627913313511</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -940,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -989,16 +989,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>0.3595575973033168</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1028,16 +1028,16 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>60.27622829416089</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,28 +1135,28 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>114.0512913036181</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>205.4093399017307</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,16 +1177,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>156.7701852745342</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>56.87466019349316</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1268,16 +1268,16 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.778646031951277</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1384,16 +1384,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,13 +1448,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1466,10 +1466,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>42.15888786678284</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>55.57566235103572</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1651,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -1672,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.809496073036132</v>
+        <v>202.2946864288972</v>
       </c>
     </row>
     <row r="15">
@@ -1685,13 +1685,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>84.05721994201966</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1703,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1733,22 +1733,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>143.7755410381886</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -1809,10 +1809,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>133.186967585368</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1855,64 +1855,64 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G17" t="n">
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J17" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R17" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>71.01467844038818</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="18">
@@ -1922,16 +1922,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>97.54810271075307</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>22.97702676147813</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -1973,22 +1973,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2046,10 +2046,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2080,17 +2080,17 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>70.34400780127524</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2165,7 +2165,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>89.98138655216529</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2207,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>84.84103413332343</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2283,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2374,19 +2374,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
         <v>220.2131257424249</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="24">
@@ -2399,13 +2399,13 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>3.833957768458675</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>77.46860910239674</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2450,10 +2450,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2462,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2517,10 +2517,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>44.30348359856715</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2554,19 +2554,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2611,10 +2611,10 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="V26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2633,13 +2633,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2648,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2681,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>37.21921181756593</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -2702,7 +2702,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>16.53524424398009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2794,10 +2794,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2836,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2845,13 +2845,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>241.0142888776591</v>
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>16.62553367015321</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2879,22 +2879,22 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>95.69401280054032</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2918,13 +2918,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2991,10 +2991,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,28 +3076,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>23.81301614990497</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3119,7 +3119,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>75.58725415135274</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>29.9892228523575</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3228,16 +3228,16 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S34" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>112.3289263072337</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3277,19 +3277,19 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3313,22 +3313,22 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>200.3360962888297</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3395,19 +3395,19 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>119.3888130423743</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3468,10 +3468,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3547,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3562,13 +3562,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>208.2638363878125</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>27.38673497138136</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -3641,7 +3641,7 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>222.3082294474576</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>241.0142888776591</v>
@@ -3650,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3705,16 +3705,16 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3745,10 +3745,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3757,55 +3757,55 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I41" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J41" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3830,19 +3830,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3866,25 +3866,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>115.1481656116171</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>133.5359977111925</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3939,10 +3939,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3954,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4021,22 +4021,22 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>234.288905720311</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -4064,22 +4064,22 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0.6806854287134353</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4103,28 +4103,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>224.2386698395766</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>173.385681888029</v>
+        <v>95.85238145955222</v>
       </c>
       <c r="C2" t="n">
-        <v>119.3326222820192</v>
+        <v>95.85238145955222</v>
       </c>
       <c r="D2" t="n">
-        <v>65.27956267600931</v>
+        <v>95.85238145955222</v>
       </c>
       <c r="E2" t="n">
-        <v>65.27956267600931</v>
+        <v>95.85238145955222</v>
       </c>
       <c r="F2" t="n">
-        <v>58.33406192680583</v>
+        <v>73.79137254815438</v>
       </c>
       <c r="G2" t="n">
-        <v>4.28100232079598</v>
+        <v>58.33406192680584</v>
       </c>
       <c r="H2" t="n">
-        <v>4.28100232079598</v>
+        <v>58.33406192680584</v>
       </c>
       <c r="I2" t="n">
-        <v>4.28100232079598</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="J2" t="n">
-        <v>4.28100232079598</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="K2" t="n">
-        <v>4.28100232079598</v>
+        <v>57.25840604064624</v>
       </c>
       <c r="L2" t="n">
-        <v>4.28100232079598</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="M2" t="n">
-        <v>57.25840604064623</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="N2" t="n">
-        <v>110.2358097604965</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="O2" t="n">
-        <v>161.0727123199487</v>
+        <v>161.0727123199488</v>
       </c>
       <c r="P2" t="n">
         <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>214.050116039799</v>
+        <v>203.958500671572</v>
       </c>
       <c r="R2" t="n">
-        <v>214.050116039799</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="S2" t="n">
-        <v>214.050116039799</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="T2" t="n">
-        <v>214.050116039799</v>
+        <v>95.85238145955222</v>
       </c>
       <c r="U2" t="n">
-        <v>214.050116039799</v>
+        <v>95.85238145955222</v>
       </c>
       <c r="V2" t="n">
-        <v>214.050116039799</v>
+        <v>95.85238145955222</v>
       </c>
       <c r="W2" t="n">
-        <v>214.050116039799</v>
+        <v>95.85238145955222</v>
       </c>
       <c r="X2" t="n">
-        <v>214.050116039799</v>
+        <v>95.85238145955222</v>
       </c>
       <c r="Y2" t="n">
-        <v>173.385681888029</v>
+        <v>95.85238145955222</v>
       </c>
     </row>
     <row r="3">
@@ -4388,73 +4388,73 @@
         <v>105.9439968277793</v>
       </c>
       <c r="C3" t="n">
-        <v>105.9439968277793</v>
+        <v>51.89093722176944</v>
       </c>
       <c r="D3" t="n">
-        <v>105.9439968277793</v>
+        <v>51.89093722176944</v>
       </c>
       <c r="E3" t="n">
-        <v>51.89093722176946</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="F3" t="n">
-        <v>51.89093722176946</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="G3" t="n">
-        <v>51.89093722176946</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="H3" t="n">
-        <v>5.035134973581694</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="I3" t="n">
-        <v>5.035134973581694</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="J3" t="n">
-        <v>4.28100232079598</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="K3" t="n">
-        <v>55.11790488024824</v>
+        <v>57.25840604064624</v>
       </c>
       <c r="L3" t="n">
-        <v>55.11790488024824</v>
+        <v>57.25840604064624</v>
       </c>
       <c r="M3" t="n">
-        <v>108.0953086000985</v>
+        <v>57.25840604064624</v>
       </c>
       <c r="N3" t="n">
-        <v>161.0727123199487</v>
+        <v>57.25840604064624</v>
       </c>
       <c r="O3" t="n">
-        <v>161.0727123199487</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="P3" t="n">
-        <v>214.050116039799</v>
+        <v>161.0727123199488</v>
       </c>
       <c r="Q3" t="n">
         <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>159.9970564337892</v>
+        <v>214.050116039799</v>
       </c>
       <c r="S3" t="n">
         <v>159.9970564337892</v>
       </c>
       <c r="T3" t="n">
-        <v>159.9970564337892</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="U3" t="n">
-        <v>159.9970564337892</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="V3" t="n">
-        <v>159.9970564337892</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="W3" t="n">
-        <v>159.9970564337892</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="X3" t="n">
-        <v>159.9970564337892</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="Y3" t="n">
-        <v>159.9970564337892</v>
+        <v>105.9439968277793</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>58.33406192680583</v>
+        <v>187.623944761548</v>
       </c>
       <c r="C4" t="n">
-        <v>58.33406192680583</v>
+        <v>187.623944761548</v>
       </c>
       <c r="D4" t="n">
-        <v>58.33406192680583</v>
+        <v>187.623944761548</v>
       </c>
       <c r="E4" t="n">
-        <v>58.33406192680583</v>
+        <v>187.623944761548</v>
       </c>
       <c r="F4" t="n">
-        <v>4.28100232079598</v>
+        <v>187.623944761548</v>
       </c>
       <c r="G4" t="n">
-        <v>4.28100232079598</v>
+        <v>133.5708851555382</v>
       </c>
       <c r="H4" t="n">
-        <v>4.28100232079598</v>
+        <v>133.5708851555382</v>
       </c>
       <c r="I4" t="n">
-        <v>4.28100232079598</v>
+        <v>79.51782554952828</v>
       </c>
       <c r="J4" t="n">
-        <v>4.28100232079598</v>
+        <v>79.51782554952828</v>
       </c>
       <c r="K4" t="n">
-        <v>4.28100232079598</v>
+        <v>79.51782554952828</v>
       </c>
       <c r="L4" t="n">
-        <v>31.59512732850896</v>
+        <v>106.8319505572413</v>
       </c>
       <c r="M4" t="n">
-        <v>70.78316552073113</v>
+        <v>146.0199887494634</v>
       </c>
       <c r="N4" t="n">
-        <v>114.4740161761674</v>
+        <v>189.7108394048998</v>
       </c>
       <c r="O4" t="n">
-        <v>138.8132928110667</v>
+        <v>214.050116039799</v>
       </c>
       <c r="P4" t="n">
-        <v>138.8132928110667</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q4" t="n">
-        <v>138.8132928110667</v>
+        <v>214.050116039799</v>
       </c>
       <c r="R4" t="n">
-        <v>138.8132928110667</v>
+        <v>187.623944761548</v>
       </c>
       <c r="S4" t="n">
-        <v>138.8132928110667</v>
+        <v>187.623944761548</v>
       </c>
       <c r="T4" t="n">
-        <v>138.8132928110667</v>
+        <v>187.623944761548</v>
       </c>
       <c r="U4" t="n">
-        <v>138.8132928110667</v>
+        <v>187.623944761548</v>
       </c>
       <c r="V4" t="n">
-        <v>84.76023320505688</v>
+        <v>187.623944761548</v>
       </c>
       <c r="W4" t="n">
-        <v>84.76023320505688</v>
+        <v>187.623944761548</v>
       </c>
       <c r="X4" t="n">
-        <v>58.33406192680583</v>
+        <v>187.623944761548</v>
       </c>
       <c r="Y4" t="n">
-        <v>58.33406192680583</v>
+        <v>187.623944761548</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>720.6083788665362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C5" t="n">
-        <v>720.6083788665362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="D5" t="n">
-        <v>477.1596022224361</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="E5" t="n">
-        <v>281.7454097505996</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="F5" t="n">
-        <v>274.7999090013961</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="H5" t="n">
         <v>31.35113235729608</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>304.5465265007123</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C6" t="n">
-        <v>304.5465265007123</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="D6" t="n">
-        <v>304.5465265007123</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="E6" t="n">
-        <v>304.5465265007123</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="F6" t="n">
-        <v>158.0119685275972</v>
+        <v>110.6980943980675</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>110.6980943980675</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N6" t="n">
-        <v>851.8101010141643</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O6" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4676,22 +4676,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>533.6469426057913</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V6" t="n">
-        <v>533.6469426057913</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W6" t="n">
-        <v>472.7618635207803</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X6" t="n">
-        <v>472.7618635207803</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y6" t="n">
-        <v>472.7618635207803</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="7">
@@ -4746,31 +4746,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C8" t="n">
-        <v>720.6083788665362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D8" t="n">
-        <v>720.6083788665362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="E8" t="n">
-        <v>477.1596022224361</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="F8" t="n">
-        <v>470.2141014732327</v>
+        <v>359.156365563381</v>
       </c>
       <c r="G8" t="n">
-        <v>226.7653248291326</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H8" t="n">
-        <v>226.7653248291326</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X8" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y8" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="9">
@@ -4859,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>324.1694235828572</v>
+        <v>419.8840176262463</v>
       </c>
       <c r="C9" t="n">
-        <v>165.8157010833278</v>
+        <v>419.8840176262463</v>
       </c>
       <c r="D9" t="n">
-        <v>165.8157010833278</v>
+        <v>419.8840176262463</v>
       </c>
       <c r="E9" t="n">
-        <v>165.8157010833278</v>
+        <v>419.8840176262463</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N9" t="n">
-        <v>851.8101010141643</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O9" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
         <v>894.6625969973069</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>735.8335372470253</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V9" t="n">
-        <v>735.8335372470253</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W9" t="n">
-        <v>492.3847606029253</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="X9" t="n">
-        <v>492.3847606029253</v>
+        <v>419.8840176262463</v>
       </c>
       <c r="Y9" t="n">
-        <v>492.3847606029253</v>
+        <v>419.8840176262463</v>
       </c>
     </row>
     <row r="10">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H10" t="n">
         <v>19.28114311021272</v>
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>243.9530410142718</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C11" t="n">
-        <v>243.9530410142718</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D11" t="n">
-        <v>243.9530410142718</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E11" t="n">
-        <v>243.9530410142718</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F11" t="n">
-        <v>243.9530410142718</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G11" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H11" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5071,22 +5071,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>738.7078125165641</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U11" t="n">
-        <v>495.259035872464</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V11" t="n">
-        <v>495.259035872464</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W11" t="n">
-        <v>251.810259228364</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X11" t="n">
-        <v>251.810259228364</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y11" t="n">
-        <v>251.810259228364</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.28114311021272</v>
+        <v>324.1694235828572</v>
       </c>
       <c r="C12" t="n">
-        <v>19.28114311021272</v>
+        <v>324.1694235828572</v>
       </c>
       <c r="D12" t="n">
-        <v>19.28114311021272</v>
+        <v>175.235013921606</v>
       </c>
       <c r="E12" t="n">
-        <v>19.28114311021272</v>
+        <v>175.235013921606</v>
       </c>
       <c r="F12" t="n">
-        <v>19.28114311021272</v>
+        <v>175.235013921606</v>
       </c>
       <c r="G12" t="n">
-        <v>19.28114311021272</v>
+        <v>175.235013921606</v>
       </c>
       <c r="H12" t="n">
-        <v>19.28114311021272</v>
+        <v>61.86587832918529</v>
       </c>
       <c r="I12" t="n">
         <v>19.28114311021272</v>
@@ -5150,22 +5150,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>705.7335281915883</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V12" t="n">
-        <v>470.5814199598456</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W12" t="n">
-        <v>227.1326433157456</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="X12" t="n">
-        <v>19.28114311021272</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.28114311021272</v>
+        <v>492.3847606029253</v>
       </c>
     </row>
     <row r="13">
@@ -5223,16 +5223,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
         <v>19.28114311021272</v>
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C14" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D14" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E14" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F14" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G14" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
         <v>19.28114311021272</v>
@@ -5299,31 +5299,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X14" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y14" t="n">
-        <v>962.2293816994886</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>281.5846883638847</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C15" t="n">
-        <v>281.5846883638847</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D15" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
         <v>19.28114311021272</v>
@@ -5363,16 +5363,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M15" t="n">
-        <v>613.2059550252818</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N15" t="n">
-        <v>725.4530095217538</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O15" t="n">
-        <v>964.0571555106362</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P15" t="n">
         <v>964.0571555106362</v>
@@ -5381,28 +5381,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T15" t="n">
-        <v>717.6598068330284</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U15" t="n">
-        <v>489.4361885694175</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V15" t="n">
-        <v>489.4361885694175</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="W15" t="n">
-        <v>489.4361885694175</v>
+        <v>312.0389260854624</v>
       </c>
       <c r="X15" t="n">
-        <v>281.5846883638847</v>
+        <v>104.1874258799295</v>
       </c>
       <c r="Y15" t="n">
-        <v>281.5846883638847</v>
+        <v>104.1874258799295</v>
       </c>
     </row>
     <row r="16">
@@ -5457,7 +5457,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R16" t="n">
         <v>19.28114311021272</v>
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>730.8505943024719</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W17" t="n">
-        <v>730.8505943024719</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X17" t="n">
-        <v>730.8505943024719</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y17" t="n">
-        <v>730.8505943024719</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>217.6974229850125</v>
+        <v>277.8061678500227</v>
       </c>
       <c r="C18" t="n">
-        <v>43.24439370388544</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="D18" t="n">
-        <v>43.24439370388544</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E18" t="n">
-        <v>43.24439370388544</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F18" t="n">
-        <v>43.24439370388544</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G18" t="n">
-        <v>43.24439370388544</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H18" t="n">
-        <v>43.24439370388544</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I18" t="n">
         <v>20.03527576299844</v>
@@ -5603,16 +5603,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N18" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5621,25 +5621,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>660.701031422288</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U18" t="n">
-        <v>660.701031422288</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V18" t="n">
-        <v>425.5489231905453</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W18" t="n">
-        <v>425.5489231905453</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="X18" t="n">
-        <v>217.6974229850125</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="Y18" t="n">
-        <v>217.6974229850125</v>
+        <v>446.0215048700907</v>
       </c>
     </row>
     <row r="19">
@@ -5694,16 +5694,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
         <v>19.28114311021272</v>
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5779,25 +5779,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T20" t="n">
-        <v>577.2332497330343</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U20" t="n">
-        <v>333.7844730889342</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V20" t="n">
-        <v>333.7844730889342</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W20" t="n">
-        <v>262.7299197543128</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X20" t="n">
-        <v>262.7299197543128</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.7299197543128</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="21">
@@ -5807,10 +5807,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>193.7341723913397</v>
+        <v>284.6244618379714</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>110.1714325568443</v>
       </c>
       <c r="D21" t="n">
         <v>19.28114311021272</v>
@@ -5837,46 +5837,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M21" t="n">
-        <v>374.6018090363993</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>487.2836868729568</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V21" t="n">
-        <v>401.5856725968725</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W21" t="n">
-        <v>401.5856725968725</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="X21" t="n">
-        <v>193.7341723913397</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="Y21" t="n">
-        <v>193.7341723913397</v>
+        <v>284.6244618379714</v>
       </c>
     </row>
     <row r="22">
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C22" t="n">
         <v>19.28114311021272</v>
@@ -5931,31 +5931,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6022,19 +6022,19 @@
         <v>728.6161971483371</v>
       </c>
       <c r="U23" t="n">
-        <v>485.167420504237</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V23" t="n">
-        <v>262.7299197543128</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W23" t="n">
-        <v>262.7299197543128</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X23" t="n">
-        <v>262.7299197543128</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="Y23" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>246.4666730769152</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="C24" t="n">
-        <v>246.4666730769152</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D24" t="n">
-        <v>97.53226341566398</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>383.2428491569326</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>621.8469951458151</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O24" t="n">
-        <v>860.4511411346975</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6098,22 +6098,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T24" t="n">
-        <v>689.4702815141908</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U24" t="n">
-        <v>689.4702815141908</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V24" t="n">
-        <v>454.3181732824481</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W24" t="n">
-        <v>454.3181732824481</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="X24" t="n">
-        <v>246.4666730769152</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="Y24" t="n">
-        <v>246.4666730769152</v>
+        <v>23.90796037760316</v>
       </c>
     </row>
     <row r="25">
@@ -6165,16 +6165,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
         <v>19.28114311021272</v>
@@ -6205,13 +6205,13 @@
         <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
         <v>19.28114311021272</v>
@@ -6250,28 +6250,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T26" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U26" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V26" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W26" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X26" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y26" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>306.9463781888485</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>306.9463781888485</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G27" t="n">
         <v>19.28114311021272</v>
@@ -6308,19 +6308,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>781.4136778972854</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
         <v>964.0571555106362</v>
@@ -6329,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>926.4619920585494</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>926.4619920585494</v>
       </c>
       <c r="T27" t="n">
-        <v>487.2836868729568</v>
+        <v>926.4619920585494</v>
       </c>
       <c r="U27" t="n">
-        <v>487.2836868729568</v>
+        <v>926.4619920585494</v>
       </c>
       <c r="V27" t="n">
-        <v>487.2836868729568</v>
+        <v>926.4619920585494</v>
       </c>
       <c r="W27" t="n">
-        <v>243.8349102288568</v>
+        <v>683.0132154144494</v>
       </c>
       <c r="X27" t="n">
-        <v>35.98341002332393</v>
+        <v>475.1617152089165</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.28114311021272</v>
+        <v>475.1617152089165</v>
       </c>
     </row>
     <row r="28">
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E28" t="n">
         <v>19.28114311021272</v>
@@ -6402,34 +6402,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>223.6192102101089</v>
+        <v>495.259035872464</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>495.259035872464</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>953.9655401424092</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U29" t="n">
-        <v>710.516763498309</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V29" t="n">
-        <v>467.067986854209</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W29" t="n">
-        <v>223.6192102101089</v>
+        <v>495.259035872464</v>
       </c>
       <c r="X29" t="n">
-        <v>223.6192102101089</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y29" t="n">
-        <v>223.6192102101089</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="30">
@@ -6518,40 +6518,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>19.28114311021272</v>
+        <v>414.6641751762832</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>414.6641751762832</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>414.6641751762832</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>255.4267201708277</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>255.4267201708277</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>116.6958947534432</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>65.60123993063803</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>65.60123993063803</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>304.2053859195205</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N30" t="n">
         <v>542.809531908403</v>
@@ -6566,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U30" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V30" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W30" t="n">
-        <v>243.8349102288568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X30" t="n">
-        <v>243.8349102288568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y30" t="n">
-        <v>36.07461146390284</v>
+        <v>582.8795121963512</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H31" t="n">
         <v>19.28114311021272</v>
@@ -6639,34 +6639,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>475.3318284112885</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C32" t="n">
-        <v>475.3318284112885</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D32" t="n">
-        <v>231.8830517671884</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E32" t="n">
-        <v>231.8830517671884</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="F32" t="n">
-        <v>231.8830517671884</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="G32" t="n">
-        <v>231.8830517671884</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="H32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6724,28 +6724,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S32" t="n">
-        <v>742.8341567219593</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T32" t="n">
-        <v>718.7806050553886</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U32" t="n">
-        <v>718.7806050553886</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V32" t="n">
-        <v>475.3318284112885</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W32" t="n">
-        <v>475.3318284112885</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X32" t="n">
-        <v>475.3318284112885</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y32" t="n">
-        <v>475.3318284112885</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>256.1153302261713</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>256.1153302261713</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>256.1153302261713</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>256.1153302261713</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I33" t="n">
         <v>19.28114311021272</v>
@@ -6788,43 +6788,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N33" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>862.8876260635219</v>
+        <v>887.706393741593</v>
       </c>
       <c r="T33" t="n">
-        <v>660.701031422288</v>
+        <v>887.706393741593</v>
       </c>
       <c r="U33" t="n">
-        <v>660.701031422288</v>
+        <v>659.482775477982</v>
       </c>
       <c r="V33" t="n">
-        <v>425.5489231905453</v>
+        <v>424.3306672462393</v>
       </c>
       <c r="W33" t="n">
-        <v>395.2567788952347</v>
+        <v>424.3306672462393</v>
       </c>
       <c r="X33" t="n">
-        <v>395.2567788952347</v>
+        <v>424.3306672462393</v>
       </c>
       <c r="Y33" t="n">
-        <v>187.4964801302808</v>
+        <v>424.3306672462393</v>
       </c>
     </row>
     <row r="34">
@@ -6876,13 +6876,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>64.03213664411894</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R34" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S34" t="n">
         <v>19.28114311021272</v>
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>132.7447050367114</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6961,28 +6961,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>132.7447050367114</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>132.7447050367114</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>132.7447050367114</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X35" t="n">
-        <v>132.7447050367114</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="Y35" t="n">
-        <v>132.7447050367114</v>
+        <v>761.6974622895962</v>
       </c>
     </row>
     <row r="36">
@@ -7025,16 +7025,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>473.4149733950735</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N36" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7043,16 +7043,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>670.0450503124422</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>670.0450503124422</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V36" t="n">
-        <v>434.8929420806995</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W36" t="n">
         <v>434.8929420806995</v>
@@ -7071,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E37" t="n">
         <v>19.28114311021272</v>
@@ -7116,31 +7116,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C38" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D38" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E38" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F38" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>728.6161971483371</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U38" t="n">
-        <v>728.6161971483371</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V38" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W38" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X38" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y38" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I39" t="n">
         <v>19.28114311021272</v>
@@ -7256,13 +7256,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>65.60123993063803</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>304.2053859195205</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N39" t="n">
         <v>542.809531908403</v>
@@ -7277,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>936.3937868526752</v>
       </c>
       <c r="S39" t="n">
-        <v>689.4702815141908</v>
+        <v>762.9764423033441</v>
       </c>
       <c r="T39" t="n">
-        <v>487.2836868729568</v>
+        <v>560.7898476621102</v>
       </c>
       <c r="U39" t="n">
-        <v>487.2836868729568</v>
+        <v>560.7898476621102</v>
       </c>
       <c r="V39" t="n">
-        <v>262.7299197543128</v>
+        <v>560.7898476621102</v>
       </c>
       <c r="W39" t="n">
-        <v>19.28114311021272</v>
+        <v>317.3410710180102</v>
       </c>
       <c r="X39" t="n">
-        <v>19.28114311021272</v>
+        <v>317.3410710180102</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
     </row>
     <row r="40">
@@ -7353,13 +7353,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
         <v>19.28114311021272</v>
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>487.4018176583718</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C41" t="n">
-        <v>487.4018176583718</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D41" t="n">
-        <v>487.4018176583718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E41" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7444,19 +7444,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V41" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W41" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X41" t="n">
-        <v>487.4018176583718</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y41" t="n">
-        <v>487.4018176583718</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>439.1764243339896</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="C42" t="n">
-        <v>439.1764243339896</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D42" t="n">
-        <v>439.1764243339896</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E42" t="n">
-        <v>279.9389693285341</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
@@ -7514,28 +7514,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S42" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T42" t="n">
-        <v>674.3285325657323</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U42" t="n">
-        <v>674.3285325657323</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V42" t="n">
-        <v>439.1764243339896</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W42" t="n">
-        <v>439.1764243339896</v>
+        <v>554.5854353412691</v>
       </c>
       <c r="X42" t="n">
-        <v>439.1764243339896</v>
+        <v>346.7339351357363</v>
       </c>
       <c r="Y42" t="n">
-        <v>439.1764243339896</v>
+        <v>346.7339351357363</v>
       </c>
     </row>
     <row r="43">
@@ -7587,25 +7587,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
         <v>19.28114311021272</v>
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C44" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D44" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E44" t="n">
         <v>262.7299197543128</v>
@@ -7639,7 +7639,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="G44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
         <v>19.28114311021272</v>
@@ -7669,28 +7669,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S44" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T44" t="n">
-        <v>738.7078125165641</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U44" t="n">
-        <v>738.7078125165641</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V44" t="n">
-        <v>738.7078125165641</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W44" t="n">
-        <v>738.7078125165641</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X44" t="n">
-        <v>738.7078125165641</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y44" t="n">
         <v>506.1786963984129</v>
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>447.2758270930352</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C45" t="n">
-        <v>272.8227978119081</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D45" t="n">
-        <v>272.8227978119081</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E45" t="n">
-        <v>272.1352367728036</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>272.1352367728036</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
@@ -7736,43 +7736,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>417.4543050195419</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N45" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O45" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T45" t="n">
-        <v>862.8876260635219</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U45" t="n">
-        <v>862.8876260635219</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V45" t="n">
-        <v>862.8876260635219</v>
+        <v>361.9495094114078</v>
       </c>
       <c r="W45" t="n">
-        <v>862.8876260635219</v>
+        <v>361.9495094114078</v>
       </c>
       <c r="X45" t="n">
-        <v>655.0361258579891</v>
+        <v>361.9495094114078</v>
       </c>
       <c r="Y45" t="n">
-        <v>447.2758270930352</v>
+        <v>361.9495094114078</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -7981,19 +7981,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>273.6023800549303</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>287.1168215956966</v>
       </c>
       <c r="M2" t="n">
-        <v>283.8587622372225</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>282.9255926065406</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>281.4486180473961</v>
+        <v>283.6107404316365</v>
       </c>
       <c r="P2" t="n">
         <v>284.7455247652193</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>189.1918456000683</v>
+        <v>191.3539679843088</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>195.6465629319681</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>184.8542410932831</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>196.1087734543942</v>
       </c>
       <c r="P3" t="n">
-        <v>187.48693642428</v>
+        <v>185.3248140400396</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>193.4943030959713</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,22 +8297,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P6" t="n">
-        <v>177.2597568922521</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8534,10 +8534,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
@@ -8546,10 +8546,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>360.302996258564</v>
       </c>
       <c r="P9" t="n">
-        <v>177.2597568922521</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8692,10 +8692,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
@@ -8929,7 +8929,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -9011,19 +9011,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>244.7225752110828</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>238.6269471880057</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9251,19 +9251,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N18" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9485,22 +9485,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>168.5314335381781</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,25 +9719,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>168.5314335381781</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9965,13 +9965,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10193,16 +10193,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>184.6294155606472</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10436,19 +10436,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N33" t="n">
-        <v>174.6270615612551</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10673,19 +10673,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>368.5691090902119</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10828,7 +10828,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10904,16 +10904,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -11065,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11302,7 +11302,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11384,19 +11384,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>185.4193833999402</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>374.9551956315293</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23272,16 +23272,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23311,22 +23311,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U11" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="12">
@@ -23336,13 +23336,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -23354,10 +23354,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>47.23774498463224</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -23390,19 +23390,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>170.3657197299391</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23463,7 +23463,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23475,7 +23475,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23497,7 +23497,7 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C14" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23515,7 +23515,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23539,7 +23539,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
@@ -23560,10 +23560,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y14" t="n">
-        <v>384.4284425830174</v>
+        <v>183.9432522271564</v>
       </c>
     </row>
     <row r="15">
@@ -23573,13 +23573,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>82.47596370784768</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -23591,7 +23591,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
@@ -23621,22 +23621,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>56.389187656633</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -23697,10 +23697,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.10642379180146</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23743,19 +23743,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,10 +23776,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
@@ -23791,16 +23791,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>256.7375800297467</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="18">
@@ -23810,16 +23810,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>75.16039627756267</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -23831,7 +23831,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>66.41960608993695</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23861,22 +23861,22 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23934,10 +23934,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23946,7 +23946,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>292.3449039254042</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -23992,7 +23992,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>278.8969609161378</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24053,7 +24053,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>57.46367901247346</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -24095,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>147.9595530161018</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24129,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24171,10 +24171,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24223,7 +24223,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24262,10 +24262,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>107.53913272771</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24274,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>166.0248129136286</v>
       </c>
     </row>
     <row r="24">
@@ -24287,13 +24287,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>168.8745412198571</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>80.1764713530042</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24308,7 +24308,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24338,10 +24338,10 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24350,7 +24350,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24405,10 +24405,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
@@ -24417,7 +24417,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>183.6421058297144</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>180.4391552345834</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24454,7 +24454,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
@@ -24499,10 +24499,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>198.920084420089</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24521,13 +24521,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24536,7 +24536,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24569,13 +24569,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>62.9386223350772</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
@@ -24590,7 +24590,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>189.1474515333243</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24609,7 +24609,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24642,13 +24642,13 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>46.82786452690794</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24682,10 +24682,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>162.9782053421103</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>124.4792166637132</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24697,7 +24697,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24724,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24733,13 +24733,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>108.226679839754</v>
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>149.9076499797141</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24767,22 +24767,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>16.54143143595614</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24806,13 +24806,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
@@ -24821,7 +24821,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -24855,7 +24855,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H31" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I31" t="n">
         <v>155.4504749272583</v>
@@ -24879,10 +24879,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
         <v>177.2933913771695</v>
@@ -24894,7 +24894,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>242.0155457579237</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>287.0492336280195</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24964,19 +24964,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>199.2828334142264</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24985,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -25007,7 +25007,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -25016,7 +25016,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -25043,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>96.09591695248508</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>221.7057603085621</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25116,16 +25116,16 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S34" t="n">
-        <v>179.7131144384051</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
@@ -25156,7 +25156,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>252.9439654637738</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25165,19 +25165,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25201,22 +25201,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>148.9048724285834</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25283,19 +25283,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>80.77591565244732</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25320,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25356,10 +25356,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25399,13 +25399,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25414,7 +25414,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25435,7 +25435,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25450,13 +25450,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>119.4884220823224</v>
+        <v>97.54843351316518</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25490,7 +25490,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>72.77109918126177</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25529,7 +25529,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>10.49235770196771</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>10.68069428326055</v>
@@ -25538,7 +25538,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25593,16 +25593,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>176.9916737032986</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25633,10 +25633,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25645,13 +25645,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25684,16 +25684,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W41" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>138.8566050823863</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -25718,19 +25718,19 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25754,25 +25754,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>85.01656308320455</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>118.1589854497271</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -25827,10 +25827,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
         <v>177.2933913771695</v>
@@ -25842,13 +25842,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>242.2195147380239</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25873,16 +25873,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25909,22 +25909,22 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>93.46335274982394</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>156.0341136990839</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25943,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -25952,22 +25952,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>156.9643950266875</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25991,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>8.561917309848639</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G46" t="n">
         <v>167.9909793584588</v>
@@ -26079,7 +26079,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>348996.9572608701</v>
+        <v>348996.95726087</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>348996.95726087</v>
+        <v>348996.9572608701</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>348996.95726087</v>
+        <v>348996.9572608701</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>348996.9572608701</v>
+        <v>348996.95726087</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>348996.9572608701</v>
+        <v>348996.95726087</v>
       </c>
     </row>
     <row r="16">
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516053</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516052</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="D2" t="n">
         <v>595255.2831516053</v>
       </c>
       <c r="E2" t="n">
+        <v>240932.9751704319</v>
+      </c>
+      <c r="F2" t="n">
+        <v>240932.9751704319</v>
+      </c>
+      <c r="G2" t="n">
         <v>240932.9751704318</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>240932.9751704319</v>
+      </c>
+      <c r="I2" t="n">
         <v>240932.9751704318</v>
       </c>
-      <c r="G2" t="n">
-        <v>240932.9751704319</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>240932.9751704318</v>
-      </c>
-      <c r="I2" t="n">
-        <v>240932.9751704319</v>
-      </c>
-      <c r="J2" t="n">
-        <v>240932.9751704319</v>
       </c>
       <c r="K2" t="n">
         <v>240932.9751704319</v>
@@ -26355,7 +26355,7 @@
         <v>240932.9751704319</v>
       </c>
       <c r="P2" t="n">
-        <v>240932.9751704318</v>
+        <v>240932.9751704319</v>
       </c>
     </row>
     <row r="3">
@@ -26429,7 +26429,7 @@
         <v>8547.111069342402</v>
       </c>
       <c r="F4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="G4" t="n">
         <v>8547.111069342402</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>204679.1311234344</v>
+        <v>204679.1311234345</v>
       </c>
       <c r="C6" t="n">
-        <v>198905.0534973735</v>
+        <v>198905.0534973738</v>
       </c>
       <c r="D6" t="n">
         <v>259481.3756840418</v>
       </c>
       <c r="E6" t="n">
-        <v>217732.1953373278</v>
+        <v>205514.1847172873</v>
       </c>
       <c r="F6" t="n">
-        <v>217732.1953373278</v>
+        <v>205514.1847172873</v>
       </c>
       <c r="G6" t="n">
-        <v>217732.1953373278</v>
+        <v>205514.1847172873</v>
       </c>
       <c r="H6" t="n">
-        <v>217732.1953373277</v>
+        <v>205514.1847172873</v>
       </c>
       <c r="I6" t="n">
-        <v>217732.1953373278</v>
+        <v>205514.1847172873</v>
       </c>
       <c r="J6" t="n">
-        <v>203730.9631970485</v>
+        <v>191512.952577008</v>
       </c>
       <c r="K6" t="n">
-        <v>169475.2424036952</v>
+        <v>157257.2317836547</v>
       </c>
       <c r="L6" t="n">
-        <v>217732.1953373278</v>
+        <v>205514.1847172873</v>
       </c>
       <c r="M6" t="n">
-        <v>217732.1953373278</v>
+        <v>205514.1847172873</v>
       </c>
       <c r="N6" t="n">
-        <v>217732.1953373278</v>
+        <v>205514.1847172873</v>
       </c>
       <c r="O6" t="n">
-        <v>217732.1953373278</v>
+        <v>205514.1847172873</v>
       </c>
       <c r="P6" t="n">
-        <v>217732.1953373277</v>
+        <v>205514.1847172873</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.51252900994975</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="C4" t="n">
         <v>241.0142888776591</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.51252900994975</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="C4" t="n">
         <v>187.5017598677093</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>53.51252900994975</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="K4" t="n">
         <v>187.5017598677093</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>53.51252900994975</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="K4" t="n">
         <v>187.5017598677093</v>
@@ -27381,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>311.7603627610578</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>301.1705126107332</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
+        <v>385.0356469194276</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
-      </c>
-      <c r="G2" t="n">
-        <v>361.7902085051853</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>156.9633605604562</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -27423,16 +27423,16 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>96.35658893119992</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>169.5833205541816</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>345.9801488458013</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27457,16 +27457,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>113.0206546399176</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>119.195969978366</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>104.1325514454512</v>
+        <v>110.5112449034372</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27475,13 +27475,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>65.84820001079058</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>46.64530514269338</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>118.1706420938881</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>146.6521996848718</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -27548,16 +27548,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>91.90851901298149</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>114.478450348509</v>
       </c>
       <c r="H4" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>101.9379459173085</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
@@ -27584,7 +27584,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>151.131481811701</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27596,13 +27596,13 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>198.6251143138782</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>199.5477458235686</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>188.4703195251436</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>298.998522982632</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -27660,10 +27660,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27709,16 +27709,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>111.8758866391931</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27748,16 +27748,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>191.4187548667587</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>132.8070558482636</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27818,7 +27818,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27855,28 +27855,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>301.251446211517</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>5.066549668675236</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27897,16 +27897,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -27931,10 +27931,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>15.93831371378155</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27943,19 +27943,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>88.19455219989072</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27979,7 +27979,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -27988,16 +27988,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28028,7 +28028,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I10" t="n">
         <v>155.4504749272583</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>51.35040662570938</v>
       </c>
       <c r="M2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>51.35040662570936</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="P2" t="n">
-        <v>53.51252900994975</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>51.35040662570935</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="P3" t="n">
-        <v>53.51252900994975</v>
+        <v>51.35040662570938</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34944,7 +34944,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
         <v>207.9338608153932</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P6" t="n">
-        <v>43.28534947792182</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35184,7 +35184,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
@@ -35254,10 +35254,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
@@ -35266,10 +35266,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="P9" t="n">
-        <v>43.28534947792182</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35731,19 +35731,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35892,7 +35892,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
         <v>207.9338608153932</v>
@@ -35971,19 +35971,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>169.9067907798016</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36205,22 +36205,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>34.55702612384782</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
@@ -36685,13 +36685,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36913,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>46.78797658628819</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -37156,19 +37156,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N33" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37393,19 +37393,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>226.4350751681936</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,16 +37624,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -38104,19 +38104,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>43.28534947792188</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
